--- a/Project/Exported Data/total.xlsx
+++ b/Project/Exported Data/total.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programs\Introduction-to-Data-Analytics\Project\Exported Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D62B41F-3BF3-41A9-9A84-995B95F3C2C7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F8858BE-8468-4B3A-9319-5E13F6568859}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6822,7 +6822,7 @@
                 <c:order val="1"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$D$2</c15:sqref>
@@ -6863,7 +6863,7 @@
                 </c:marker>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$B$3:$B$69</c15:sqref>
@@ -7078,7 +7078,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$D$3:$D$69</c15:sqref>
@@ -7293,7 +7293,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000001-3321-4B7F-AE57-FDEF13AF54C2}"/>
                   </c:ext>
@@ -7306,7 +7306,7 @@
                 <c:order val="2"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$E$2</c15:sqref>
@@ -7347,7 +7347,7 @@
                 </c:marker>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$B$3:$B$69</c15:sqref>
@@ -7562,7 +7562,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$E$3:$E$69</c15:sqref>
@@ -7777,7 +7777,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000002-3321-4B7F-AE57-FDEF13AF54C2}"/>
                   </c:ext>
@@ -7790,7 +7790,7 @@
                 <c:order val="3"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$F$2</c15:sqref>
@@ -7831,7 +7831,7 @@
                 </c:marker>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$B$3:$B$69</c15:sqref>
@@ -8046,7 +8046,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$F$3:$F$69</c15:sqref>
@@ -8261,7 +8261,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000003-3321-4B7F-AE57-FDEF13AF54C2}"/>
                   </c:ext>
@@ -8274,7 +8274,7 @@
                 <c:order val="4"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$G$2</c15:sqref>
@@ -8315,7 +8315,7 @@
                 </c:marker>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$B$3:$B$69</c15:sqref>
@@ -8530,7 +8530,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$G$3:$G$69</c15:sqref>
@@ -8745,7 +8745,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000004-3321-4B7F-AE57-FDEF13AF54C2}"/>
                   </c:ext>
@@ -8758,7 +8758,7 @@
                 <c:order val="5"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$H$2</c15:sqref>
@@ -8799,7 +8799,7 @@
                 </c:marker>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$B$3:$B$69</c15:sqref>
@@ -9014,7 +9014,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$H$3:$H$69</c15:sqref>
@@ -9229,7 +9229,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000005-3321-4B7F-AE57-FDEF13AF54C2}"/>
                   </c:ext>
@@ -12851,7 +12851,7 @@
                 <c:order val="1"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$D$2</c15:sqref>
@@ -12892,7 +12892,7 @@
                 </c:marker>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$B$3:$B$69</c15:sqref>
@@ -13107,7 +13107,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$D$3:$D$69</c15:sqref>
@@ -13322,7 +13322,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000001-861F-4CC0-8FEA-D8FAC2BCA767}"/>
                   </c:ext>
@@ -13335,7 +13335,7 @@
                 <c:order val="2"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$E$2</c15:sqref>
@@ -13376,7 +13376,7 @@
                 </c:marker>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$B$3:$B$69</c15:sqref>
@@ -13591,7 +13591,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$E$3:$E$69</c15:sqref>
@@ -13806,7 +13806,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000002-861F-4CC0-8FEA-D8FAC2BCA767}"/>
                   </c:ext>
@@ -13819,7 +13819,7 @@
                 <c:order val="3"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$F$2</c15:sqref>
@@ -13860,7 +13860,7 @@
                 </c:marker>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$B$3:$B$69</c15:sqref>
@@ -14075,7 +14075,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$F$3:$F$69</c15:sqref>
@@ -14290,7 +14290,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000003-861F-4CC0-8FEA-D8FAC2BCA767}"/>
                   </c:ext>
@@ -14303,7 +14303,7 @@
                 <c:order val="4"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$G$2</c15:sqref>
@@ -14344,7 +14344,7 @@
                 </c:marker>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$B$3:$B$69</c15:sqref>
@@ -14559,7 +14559,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$G$3:$G$69</c15:sqref>
@@ -14774,7 +14774,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000004-861F-4CC0-8FEA-D8FAC2BCA767}"/>
                   </c:ext>
@@ -14787,7 +14787,7 @@
                 <c:order val="5"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$H$2</c15:sqref>
@@ -14828,7 +14828,7 @@
                 </c:marker>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$B$3:$B$69</c15:sqref>
@@ -15043,7 +15043,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$H$3:$H$69</c15:sqref>
@@ -15258,7 +15258,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000005-861F-4CC0-8FEA-D8FAC2BCA767}"/>
                   </c:ext>
@@ -15271,7 +15271,7 @@
                 <c:order val="6"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$I$2</c15:sqref>
@@ -15318,7 +15318,7 @@
                 </c:marker>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$B$3:$B$69</c15:sqref>
@@ -15533,7 +15533,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$I$3:$I$69</c15:sqref>
@@ -15748,7 +15748,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000006-861F-4CC0-8FEA-D8FAC2BCA767}"/>
                   </c:ext>
@@ -15761,7 +15761,7 @@
                 <c:order val="7"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$J$2</c15:sqref>
@@ -15808,7 +15808,7 @@
                 </c:marker>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$B$3:$B$69</c15:sqref>
@@ -16023,7 +16023,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$J$3:$J$69</c15:sqref>
@@ -16238,7 +16238,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000007-861F-4CC0-8FEA-D8FAC2BCA767}"/>
                   </c:ext>
@@ -16251,7 +16251,7 @@
                 <c:order val="8"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$K$2</c15:sqref>
@@ -16298,7 +16298,7 @@
                 </c:marker>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$B$3:$B$69</c15:sqref>
@@ -16513,7 +16513,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$K$3:$K$69</c15:sqref>
@@ -16728,7 +16728,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000008-861F-4CC0-8FEA-D8FAC2BCA767}"/>
                   </c:ext>
@@ -16741,7 +16741,7 @@
                 <c:order val="9"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$L$2</c15:sqref>
@@ -16788,7 +16788,7 @@
                 </c:marker>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$B$3:$B$69</c15:sqref>
@@ -17003,7 +17003,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$L$3:$L$69</c15:sqref>
@@ -17218,7 +17218,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000009-861F-4CC0-8FEA-D8FAC2BCA767}"/>
                   </c:ext>
@@ -17231,7 +17231,7 @@
                 <c:order val="10"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$M$2</c15:sqref>
@@ -17278,7 +17278,7 @@
                 </c:marker>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$B$3:$B$69</c15:sqref>
@@ -17493,7 +17493,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$M$3:$M$69</c15:sqref>
@@ -17708,7 +17708,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{0000000A-861F-4CC0-8FEA-D8FAC2BCA767}"/>
                   </c:ext>
@@ -17721,7 +17721,7 @@
                 <c:order val="11"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$N$2</c15:sqref>
@@ -17768,7 +17768,7 @@
                 </c:marker>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$B$3:$B$69</c15:sqref>
@@ -17983,7 +17983,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$N$3:$N$69</c15:sqref>
@@ -18198,7 +18198,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{0000000B-861F-4CC0-8FEA-D8FAC2BCA767}"/>
                   </c:ext>
@@ -18437,7 +18437,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Year averages per County</a:t>
+              <a:t> Year averages (population, income, opioid death rate) per County</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -18487,7 +18487,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent6"/>
+                <a:srgbClr val="00B0F0"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -18498,11 +18498,11 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent6"/>
+                <a:sysClr val="window" lastClr="FFFFFF"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent6"/>
+                  <a:srgbClr val="00B0F0"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -18943,9 +18943,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent6">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
+                <a:srgbClr val="92D050"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -18962,9 +18960,7 @@
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent6">
-                    <a:lumMod val="60000"/>
-                  </a:schemeClr>
+                  <a:srgbClr val="92D050"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -19405,10 +19401,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent6">
-                  <a:lumMod val="80000"/>
-                  <a:lumOff val="20000"/>
-                </a:schemeClr>
+                <a:srgbClr val="C00000"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -19426,10 +19419,7 @@
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent6">
-                    <a:lumMod val="80000"/>
-                    <a:lumOff val="20000"/>
-                  </a:schemeClr>
+                  <a:srgbClr val="C00000"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -20836,7 +20826,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000004-7133-4A36-A170-1A739AC7E6D0}"/>
                   </c:ext>
@@ -21320,7 +21310,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000005-7133-4A36-A170-1A739AC7E6D0}"/>
                   </c:ext>
@@ -21804,7 +21794,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000006-7133-4A36-A170-1A739AC7E6D0}"/>
                   </c:ext>
@@ -22288,7 +22278,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000007-7133-4A36-A170-1A739AC7E6D0}"/>
                   </c:ext>
@@ -22778,7 +22768,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000008-7133-4A36-A170-1A739AC7E6D0}"/>
                   </c:ext>
@@ -23268,7 +23258,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000009-7133-4A36-A170-1A739AC7E6D0}"/>
                   </c:ext>
@@ -23758,7 +23748,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{0000000A-7133-4A36-A170-1A739AC7E6D0}"/>
                   </c:ext>
@@ -24248,7 +24238,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{0000000B-7133-4A36-A170-1A739AC7E6D0}"/>
                   </c:ext>
@@ -24738,7 +24728,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{0000000C-7133-4A36-A170-1A739AC7E6D0}"/>
                   </c:ext>
@@ -25231,7 +25221,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{0000000D-7133-4A36-A170-1A739AC7E6D0}"/>
                   </c:ext>
@@ -25724,7 +25714,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{0000000E-7133-4A36-A170-1A739AC7E6D0}"/>
                   </c:ext>
@@ -26217,7 +26207,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{0000000F-7133-4A36-A170-1A739AC7E6D0}"/>
                   </c:ext>
@@ -26710,7 +26700,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000010-7133-4A36-A170-1A739AC7E6D0}"/>
                   </c:ext>
@@ -27203,7 +27193,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000011-7133-4A36-A170-1A739AC7E6D0}"/>
                   </c:ext>
@@ -27268,6 +27258,8 @@
         <c:axId val="645548655"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1300000"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -30049,8 +30041,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T12" sqref="T12"/>
+    <sheetView tabSelected="1" topLeftCell="B178" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E175" sqref="E175"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
